--- a/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="first_eval," sheetId="1" r:id="rId1"/>
+    <sheet name="first_eval" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01279531655492665</v>
+        <v>0.0188948199481075</v>
       </c>
       <c r="C2">
-        <v>0.4206736924384051</v>
+        <v>0.4187755806181844</v>
       </c>
       <c r="D2">
-        <v>0.4436946091867814</v>
+        <v>0.4370514162648471</v>
       </c>
       <c r="E2">
-        <v>0.6661040528226663</v>
+        <v>0.6610986433693894</v>
       </c>
       <c r="F2">
-        <v>0.672742550949622</v>
+        <v>0.6674041429934753</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4253145152032158</v>
+        <v>0.4263588555972532</v>
       </c>
       <c r="C3">
-        <v>0.7051715284317073</v>
+        <v>0.7006187285611748</v>
       </c>
       <c r="D3">
-        <v>1.455332834918957</v>
+        <v>1.430786905557154</v>
       </c>
       <c r="E3">
-        <v>1.206371764805094</v>
+        <v>1.196155050801172</v>
       </c>
       <c r="F3">
-        <v>1.140610029634582</v>
+        <v>1.128935308341156</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6041157085646035</v>
+        <v>0.6005044672587662</v>
       </c>
       <c r="C4">
-        <v>1.054181531327729</v>
+        <v>1.041385273230807</v>
       </c>
       <c r="D4">
-        <v>4.192407435139237</v>
+        <v>4.110571973985722</v>
       </c>
       <c r="E4">
-        <v>2.047536919115071</v>
+        <v>2.027454555344145</v>
       </c>
       <c r="F4">
-        <v>1.977090485335668</v>
+        <v>1.956550704154995</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.492335636057914</v>
+        <v>0.4965930427113764</v>
       </c>
       <c r="C5">
-        <v>1.104594972656195</v>
+        <v>1.09609697646386</v>
       </c>
       <c r="D5">
-        <v>4.831612135462052</v>
+        <v>4.741065602765889</v>
       </c>
       <c r="E5">
-        <v>2.198092840501068</v>
+        <v>2.177398815735392</v>
       </c>
       <c r="F5">
-        <v>2.165406049760878</v>
+        <v>2.142449014907315</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4045678632237423</v>
+        <v>0.4101449545471543</v>
       </c>
       <c r="C6">
-        <v>0.9767685089927266</v>
+        <v>0.9701711184912666</v>
       </c>
       <c r="D6">
-        <v>4.477249996630971</v>
+        <v>4.391446317909476</v>
       </c>
       <c r="E6">
-        <v>2.115951321895419</v>
+        <v>2.095577800490708</v>
       </c>
       <c r="F6">
-        <v>2.099864771683946</v>
+        <v>2.077266647837042</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3971842988168393</v>
+        <v>0.4037568587085331</v>
       </c>
       <c r="C7">
-        <v>1.068834033758934</v>
+        <v>1.05621660122371</v>
       </c>
       <c r="D7">
-        <v>5.512122890707765</v>
+        <v>5.365873945673021</v>
       </c>
       <c r="E7">
-        <v>2.34779106623817</v>
+        <v>2.31643561224417</v>
       </c>
       <c r="F7">
-        <v>2.3487488339111</v>
+        <v>2.314277311063799</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3881726698115356</v>
+        <v>0.3937173311530819</v>
       </c>
       <c r="C8">
-        <v>1.070864984144432</v>
+        <v>1.056330459770304</v>
       </c>
       <c r="D8">
-        <v>5.6365315839776</v>
+        <v>5.480532792941329</v>
       </c>
       <c r="E8">
-        <v>2.374138071801554</v>
+        <v>2.341053778310385</v>
       </c>
       <c r="F8">
-        <v>2.378505094847106</v>
+        <v>2.342413036496409</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2469932723973198</v>
+        <v>0.2639658233040533</v>
       </c>
       <c r="C9">
-        <v>1.594326093029843</v>
+        <v>1.532043772134663</v>
       </c>
       <c r="D9">
-        <v>10.79654930455789</v>
+        <v>10.17832809721954</v>
       </c>
       <c r="E9">
-        <v>3.285810296495812</v>
+        <v>3.1903492124248</v>
       </c>
       <c r="F9">
-        <v>3.383969050756559</v>
+        <v>3.277261169815604</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0188948199481075</v>
+        <v>0.02037664140334729</v>
       </c>
       <c r="C2">
-        <v>0.4187755806181844</v>
+        <v>0.4125673874451535</v>
       </c>
       <c r="D2">
-        <v>0.4370514162648471</v>
+        <v>0.4288236258248655</v>
       </c>
       <c r="E2">
-        <v>0.6610986433693894</v>
+        <v>0.6548462612131687</v>
       </c>
       <c r="F2">
-        <v>0.6674041429934753</v>
+        <v>0.6609149592609375</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4263588555972532</v>
+        <v>0.4198709658825853</v>
       </c>
       <c r="C3">
-        <v>0.7006187285611748</v>
+        <v>0.6887531942785867</v>
       </c>
       <c r="D3">
-        <v>1.430786905557154</v>
+        <v>1.402911000708223</v>
       </c>
       <c r="E3">
-        <v>1.196155050801172</v>
+        <v>1.184445440156795</v>
       </c>
       <c r="F3">
-        <v>1.128935308341156</v>
+        <v>1.118548952961554</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6005044672587662</v>
+        <v>0.5914175045278451</v>
       </c>
       <c r="C4">
-        <v>1.041385273230807</v>
+        <v>1.023480694380445</v>
       </c>
       <c r="D4">
-        <v>4.110571973985722</v>
+        <v>4.028787767966156</v>
       </c>
       <c r="E4">
-        <v>2.027454555344145</v>
+        <v>2.007184039386064</v>
       </c>
       <c r="F4">
-        <v>1.956550704154995</v>
+        <v>1.937548709935223</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4965930427113764</v>
+        <v>0.4886808719290308</v>
       </c>
       <c r="C5">
-        <v>1.09609697646386</v>
+        <v>1.0759500315233</v>
       </c>
       <c r="D5">
-        <v>4.741065602765889</v>
+        <v>4.644551171805161</v>
       </c>
       <c r="E5">
-        <v>2.177398815735392</v>
+        <v>2.155122078167536</v>
       </c>
       <c r="F5">
-        <v>2.142449014907315</v>
+        <v>2.120737718949353</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4101449545471543</v>
+        <v>0.4109263009013963</v>
       </c>
       <c r="C6">
-        <v>0.9701711184912666</v>
+        <v>0.9592852530966729</v>
       </c>
       <c r="D6">
-        <v>4.391446317909476</v>
+        <v>4.304132647662862</v>
       </c>
       <c r="E6">
-        <v>2.095577800490708</v>
+        <v>2.074640365861723</v>
       </c>
       <c r="F6">
-        <v>2.077266647837042</v>
+        <v>2.055056383234047</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4037568587085331</v>
+        <v>0.4014302792999628</v>
       </c>
       <c r="C7">
-        <v>1.05621660122371</v>
+        <v>1.035766140078607</v>
       </c>
       <c r="D7">
-        <v>5.365873945673021</v>
+        <v>5.219666336070993</v>
       </c>
       <c r="E7">
-        <v>2.31643561224417</v>
+        <v>2.284658910225111</v>
       </c>
       <c r="F7">
-        <v>2.314277311063799</v>
+        <v>2.28101933610867</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3937173311530819</v>
+        <v>0.3912910724344761</v>
       </c>
       <c r="C8">
-        <v>1.056330459770304</v>
+        <v>1.034972397376921</v>
       </c>
       <c r="D8">
-        <v>5.480532792941329</v>
+        <v>5.326670609579055</v>
       </c>
       <c r="E8">
-        <v>2.341053778310385</v>
+        <v>2.307958103947958</v>
       </c>
       <c r="F8">
-        <v>2.342413036496409</v>
+        <v>2.307753342904947</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2639658233040533</v>
+        <v>0.2626343886760503</v>
       </c>
       <c r="C9">
-        <v>1.532043772134663</v>
+        <v>1.460263562571626</v>
       </c>
       <c r="D9">
-        <v>10.17832809721954</v>
+        <v>9.616065425151794</v>
       </c>
       <c r="E9">
-        <v>3.1903492124248</v>
+        <v>3.100978140063518</v>
       </c>
       <c r="F9">
-        <v>3.277261169815604</v>
+        <v>3.179415362967537</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.6362704262060774</v>
+        <v>-0.5588777053075298</v>
       </c>
       <c r="C10">
-        <v>1.278881261823178</v>
+        <v>1.182169283809976</v>
       </c>
       <c r="D10">
-        <v>7.066425088523457</v>
+        <v>6.428227015842427</v>
       </c>
       <c r="E10">
-        <v>2.658274833143378</v>
+        <v>2.535394844169725</v>
       </c>
       <c r="F10">
-        <v>2.720617787941839</v>
+        <v>2.593736879289778</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
